--- a/Metadata/Processed/20211014MetaData copy.xlsx
+++ b/Metadata/Processed/20211014MetaData copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriamarland/Documents/GitHub/GcMsDataProcess/Metadata/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B68E312-664C-3B46-AE36-21E3865A5911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348DB78-D642-A04E-AE1C-6580836353DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
   <si>
     <t>MeOH Blk</t>
   </si>
@@ -135,7 +135,37 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Repeat</t>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>Dilution</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>QuantWeight</t>
+  </si>
+  <si>
+    <t>TotalWeight</t>
+  </si>
+  <si>
+    <t>Check Standard</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Blotter</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Powder</t>
   </si>
 </sst>
 </file>
@@ -458,16 +488,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -475,50 +508,67 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
         <v>211014001</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -530,25 +580,27 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
         <v>211014002</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -560,25 +612,27 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
         <v>211014003</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -590,25 +644,27 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
         <v>211014004</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -620,25 +676,27 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>211014005</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -650,25 +708,27 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
         <v>211014006</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -680,25 +740,27 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>211014008</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -710,25 +772,27 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>211014009</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -740,25 +804,27 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>211014010</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -770,25 +836,27 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
         <v>211014011</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -800,25 +868,27 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <v>211014030</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -830,28 +900,36 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
         <v>211014031</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -860,25 +938,27 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
         <v>211014032</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -890,28 +970,36 @@
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
         <v>211014033</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -920,25 +1008,27 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
         <v>211014034</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -950,28 +1040,36 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
         <v>211014035</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -980,25 +1078,27 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
         <v>211014036</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1010,28 +1110,36 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
         <v>211014037</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1040,25 +1148,27 @@
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
         <v>211014038</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1070,28 +1180,36 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
         <v>211014039</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1100,25 +1218,27 @@
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
         <v>211014040</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1130,28 +1250,36 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
         <v>28</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
         <v>211014041</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>10</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1160,25 +1288,27 @@
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
         <v>211014042</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1190,28 +1320,36 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
         <v>211014043</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>10</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1220,25 +1358,27 @@
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
         <v>211014044</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1250,28 +1390,36 @@
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
         <v>211014045</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1280,25 +1428,27 @@
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
         <v>211014046</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1310,28 +1460,36 @@
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
         <v>211014047</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>8</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1340,25 +1498,27 @@
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
         <v>211014048</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1370,28 +1530,36 @@
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
         <v>211014049</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>10</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1400,25 +1568,27 @@
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="1">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
         <v>211014050</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1430,28 +1600,36 @@
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
         <v>33</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
         <v>211014051</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1460,25 +1638,27 @@
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
         <v>211014052</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1490,55 +1670,67 @@
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
         <v>211014053</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="M35" s="1">
+        <v>837.8</v>
+      </c>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="1">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
         <v>211014054</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1550,30 +1742,40 @@
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
         <v>211014055</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1568.6</v>
+      </c>
       <c r="N37" s="1"/>
     </row>
   </sheetData>
